--- a/yuhun_demo.xlsx
+++ b/yuhun_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\mumuyys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E97A99-5D12-435F-ADE8-47F3EADD5704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7147C2D-2215-4AE3-BE57-C77F9BCEC5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="13320" windowHeight="13560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="御魂介绍" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="149">
   <si>
     <t>式神</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,6 +491,28 @@
   </si>
   <si>
     <t>指标2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不见岳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不见岳</t>
+  </si>
+  <si>
+    <t>防</t>
+  </si>
+  <si>
+    <t>一速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1842,10 +1864,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AE7240-1208-47E2-9FA4-0A49A15B44C2}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD130"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1880,6 +1903,1092 @@
       </c>
       <c r="J1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>148</v>
+      </c>
+      <c r="H44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>148</v>
+      </c>
+      <c r="H45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>148</v>
+      </c>
+      <c r="H46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>148</v>
+      </c>
+      <c r="H47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>148</v>
+      </c>
+      <c r="H49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>148</v>
+      </c>
+      <c r="H50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>148</v>
+      </c>
+      <c r="H51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>148</v>
+      </c>
+      <c r="H52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>148</v>
+      </c>
+      <c r="H53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" t="s">
+        <v>148</v>
+      </c>
+      <c r="H54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" t="s">
+        <v>148</v>
+      </c>
+      <c r="H55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" t="s">
+        <v>148</v>
+      </c>
+      <c r="H58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>148</v>
+      </c>
+      <c r="H59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" t="s">
+        <v>148</v>
+      </c>
+      <c r="H60" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>148</v>
+      </c>
+      <c r="H61" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
